--- a/biology/Médecine/Eugène_Osty/Eugène_Osty.xlsx
+++ b/biology/Médecine/Eugène_Osty/Eugène_Osty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Osty</t>
+          <t>Eugène_Osty</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Osty, né le 16 mai 1874 à Paris et mort le 20 août 1938 dans la même ville, est un médecin et chercheur en parapsychologie français[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Osty, né le 16 mai 1874 à Paris et mort le 20 août 1938 dans la même ville, est un médecin et chercheur en parapsychologie français,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Osty</t>
+          <t>Eugène_Osty</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Paris, le 16 mai 1874, il fit des études médicales puis s'installa dans le Berry en 1900. Il commença à s'intéresser aux capacités psi en 1909, après avoir assisté à une expérience médiumnique : une médium, par ailleurs femme très ordinaire, fut capable de faire successivement l'analyse psychologique de six personnes, parfaitement inconnues d'elle quelques instants auparavant.
-Il commence alors à étudier méthodiquement cette faculté. Il publie en 1913 les résultats de cette étude, sous le titre de Lucidité et intuition : étude expérimentale. Durant la guerre il est mobilisé comme médecin militaire. Il s'installe à Paris en 1921, puis de 1924 à 1931, il abandonne son activité de médecin pour se consacrer à l'étude des phénomènes parapsychologiques. À la mort de son ami Gustave Geley, il lui succédera comme directeur de l'Institut métapsychique international [3],[4]. jusqu'à sa mort.
+Il commence alors à étudier méthodiquement cette faculté. Il publie en 1913 les résultats de cette étude, sous le titre de Lucidité et intuition : étude expérimentale. Durant la guerre il est mobilisé comme médecin militaire. Il s'installe à Paris en 1921, puis de 1924 à 1931, il abandonne son activité de médecin pour se consacrer à l'étude des phénomènes parapsychologiques. À la mort de son ami Gustave Geley, il lui succédera comme directeur de l'Institut métapsychique international ,. jusqu'à sa mort.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Osty</t>
+          <t>Eugène_Osty</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ouvrages et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lucidité et intuition : étude expérimentale, Librairie Félix Alcan, (Paris) 1913
 Le sens de la vie humaine, La Renaissance du livre, 1919
